--- a/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
+++ b/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\ICtPSFfL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\trans\ICtPSFfL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,15 +14,16 @@
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
     <sheet name="Calcs" sheetId="1" r:id="rId2"/>
-    <sheet name="ICtPSFfL" sheetId="3" r:id="rId3"/>
+    <sheet name="India Adjustment" sheetId="4" r:id="rId3"/>
+    <sheet name="ICtPSFfL" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="btu_per_EGJ">About!$A$24</definedName>
-    <definedName name="btu_per_EJ">About!$A$24</definedName>
-    <definedName name="btu_per_GJ">About!$A$24</definedName>
+    <definedName name="btu_per_EGJ">About!$A$26</definedName>
+    <definedName name="btu_per_EJ">About!$A$26</definedName>
+    <definedName name="btu_per_GJ">About!$A$26</definedName>
     <definedName name="HHV_Adjust">[1]About!$A$160</definedName>
     <definedName name="lignite_multiplier">#REF!</definedName>
     <definedName name="nonlignite_multiplier">#REF!</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
   <si>
     <t>Renewable Diesel</t>
   </si>
@@ -167,6 +168,36 @@
   </si>
   <si>
     <t>Cost ($/BTU)</t>
+  </si>
+  <si>
+    <t>For India, we apply an adjustment factor based on the ratio of biofuel costs in</t>
+  </si>
+  <si>
+    <t>India compared to the US.</t>
+  </si>
+  <si>
+    <t>BFPaT-pretax</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>BFPaT-tax</t>
+  </si>
+  <si>
+    <t>biodiesel</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>File fuels/BFPaT for both India and US EPS 3.1</t>
   </si>
 </sst>
 </file>
@@ -575,21 +606,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -597,97 +630,112 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="3">
         <v>947817.12</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -700,20 +748,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.3984375" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2015</v>
       </c>
@@ -823,7 +873,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -936,7 +986,7 @@
         <v>38.8994534841326</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1099,7 @@
         <v>47.526138928681398</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1212,7 @@
         <v>36.031200708728697</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1275,7 +1325,7 @@
         <v>41.934834775512002</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1388,7 +1438,7 @@
         <v>36.031508112322399</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1501,12 +1551,12 @@
         <v>39.309585492238803</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1669,7 @@
         <v>38.8994534841326</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1732,12 +1782,12 @@
         <v>47.526138928681398</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1936,7 @@
         <v>4.1041096075720387E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2035,7 +2085,7 @@
         <v>5.0142731045712066E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2184,7 +2234,7 @@
         <v>3.8014929197236589E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2383,7 @@
         <v>4.4243592873182117E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2482,7 +2532,7 @@
         <v>3.8015253525197351E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2631,7 +2681,7 @@
         <v>4.1473808251362669E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2780,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2929,7 +2979,7 @@
         <v>4.1041096075720387E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3078,12 +3128,12 @@
         <v>5.0142731045712066E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -3091,7 +3141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3099,7 +3149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3107,7 +3157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -3115,12 +3165,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>2015</v>
       </c>
@@ -3230,7 +3280,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -3343,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -3456,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3605,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -3761,20 +3811,136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1">
+        <v>2.4943594849428614E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>1.3741805125825274E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>1.3128207815488744E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>4.3719605054697814E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <f>D1+D3</f>
+        <v>2.6256415630977488E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <f>D2+D4</f>
+        <v>1.8113765631295055E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <f>D6/D7</f>
+        <v>1.4495282850306079</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AK7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.86328125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -3887,7 +4053,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4036,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4185,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4334,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4483,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4632,156 +4798,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7">
-        <f>MAX(Calcs!B35,0)</f>
-        <v>1.4983336005860395E-5</v>
+        <f>MAX(Calcs!B35,0)*'India Adjustment'!$B$9</f>
+        <v>2.1718769344612178E-5</v>
       </c>
       <c r="C7">
-        <f>MAX(Calcs!C35,0)</f>
-        <v>1.5561023702055728E-5</v>
+        <f>MAX(Calcs!C35,0)*'India Adjustment'!$B$9</f>
+        <v>2.2556144000161481E-5</v>
       </c>
       <c r="D7">
-        <f>MAX(Calcs!D35,0)</f>
-        <v>1.547130867572871E-5</v>
+        <f>MAX(Calcs!D35,0)*'India Adjustment'!$B$9</f>
+        <v>2.2426099531908203E-5</v>
       </c>
       <c r="E7">
-        <f>MAX(Calcs!E35,0)</f>
-        <v>1.5172591501583976E-5</v>
+        <f>MAX(Calcs!E35,0)*'India Adjustment'!$B$9</f>
+        <v>2.1993100538760999E-5</v>
       </c>
       <c r="F7">
-        <f>MAX(Calcs!F35,0)</f>
-        <v>1.4256827738911485E-5</v>
+        <f>MAX(Calcs!F35,0)*'India Adjustment'!$B$9</f>
+        <v>2.0665675062361164E-5</v>
       </c>
       <c r="G7">
-        <f>MAX(Calcs!G35,0)</f>
-        <v>1.3481046592252095E-5</v>
+        <f>MAX(Calcs!G35,0)*'India Adjustment'!$B$9</f>
+        <v>1.9541158347284901E-5</v>
       </c>
       <c r="H7">
-        <f>MAX(Calcs!H35,0)</f>
-        <v>1.2683734860189488E-5</v>
+        <f>MAX(Calcs!H35,0)*'India Adjustment'!$B$9</f>
+        <v>1.8385432439673406E-5</v>
       </c>
       <c r="I7">
-        <f>MAX(Calcs!I35,0)</f>
-        <v>1.153271310612484E-5</v>
+        <f>MAX(Calcs!I35,0)*'India Adjustment'!$B$9</f>
+        <v>1.6716993850471156E-5</v>
       </c>
       <c r="J7">
-        <f>MAX(Calcs!J35,0)</f>
-        <v>1.0162044434229573E-5</v>
+        <f>MAX(Calcs!J35,0)*'India Adjustment'!$B$9</f>
+        <v>1.4730170841153627E-5</v>
       </c>
       <c r="K7">
-        <f>MAX(Calcs!K35,0)</f>
-        <v>1.0283888023439061E-5</v>
+        <f>MAX(Calcs!K35,0)*'India Adjustment'!$B$9</f>
+        <v>1.4906786570062429E-5</v>
       </c>
       <c r="L7">
-        <f>MAX(Calcs!L35,0)</f>
-        <v>1.0160499354831865E-5</v>
+        <f>MAX(Calcs!L35,0)*'India Adjustment'!$B$9</f>
+        <v>1.4727931204864032E-5</v>
       </c>
       <c r="M7">
-        <f>MAX(Calcs!M35,0)</f>
-        <v>1.0027822438351394E-5</v>
+        <f>MAX(Calcs!M35,0)*'India Adjustment'!$B$9</f>
+        <v>1.4535612261654945E-5</v>
       </c>
       <c r="N7">
-        <f>MAX(Calcs!N35,0)</f>
-        <v>9.8873490021975999E-6</v>
+        <f>MAX(Calcs!N35,0)*'India Adjustment'!$B$9</f>
+        <v>1.4331992042654579E-5</v>
       </c>
       <c r="O7">
-        <f>MAX(Calcs!O35,0)</f>
-        <v>9.5487841646873881E-6</v>
+        <f>MAX(Calcs!O35,0)*'India Adjustment'!$B$9</f>
+        <v>1.3841232734366737E-5</v>
       </c>
       <c r="P7">
-        <f>MAX(Calcs!P35,0)</f>
-        <v>9.5301969604591001E-6</v>
+        <f>MAX(Calcs!P35,0)*'India Adjustment'!$B$9</f>
+        <v>1.3814290056098193E-5</v>
       </c>
       <c r="Q7">
-        <f>MAX(Calcs!Q35,0)</f>
-        <v>9.2556773196750223E-6</v>
+        <f>MAX(Calcs!Q35,0)*'India Adjustment'!$B$9</f>
+        <v>1.3416366071985228E-5</v>
       </c>
       <c r="R7">
-        <f>MAX(Calcs!R35,0)</f>
-        <v>1.050475757523149E-5</v>
+        <f>MAX(Calcs!R35,0)*'India Adjustment'!$B$9</f>
+        <v>1.5226943232687588E-5</v>
       </c>
       <c r="S7">
-        <f>MAX(Calcs!S35,0)</f>
-        <v>1.0236835313510908E-5</v>
+        <f>MAX(Calcs!S35,0)*'India Adjustment'!$B$9</f>
+        <v>1.4838582336134232E-5</v>
       </c>
       <c r="T7">
-        <f>MAX(Calcs!T35,0)</f>
-        <v>9.8027330425159485E-6</v>
+        <f>MAX(Calcs!T35,0)*'India Adjustment'!$B$9</f>
+        <v>1.4209338815731016E-5</v>
       </c>
       <c r="U7">
-        <f>MAX(Calcs!U35,0)</f>
-        <v>9.2258969328643323E-6</v>
+        <f>MAX(Calcs!U35,0)*'India Adjustment'!$B$9</f>
+        <v>1.3373198558963981E-5</v>
       </c>
       <c r="V7">
-        <f>MAX(Calcs!V35,0)</f>
-        <v>9.9329310402706153E-6</v>
+        <f>MAX(Calcs!V35,0)*'India Adjustment'!$B$9</f>
+        <v>1.4398064496130757E-5</v>
       </c>
       <c r="W7">
-        <f>MAX(Calcs!W35,0)</f>
-        <v>9.1794405787296826E-6</v>
+        <f>MAX(Calcs!W35,0)*'India Adjustment'!$B$9</f>
+        <v>1.3305858759626409E-5</v>
       </c>
       <c r="X7">
-        <f>MAX(Calcs!X35,0)</f>
-        <v>8.0323304669281553E-6</v>
+        <f>MAX(Calcs!X35,0)*'India Adjustment'!$B$9</f>
+        <v>1.1643090206525472E-5</v>
       </c>
       <c r="Y7">
-        <f>MAX(Calcs!Y35,0)</f>
-        <v>6.4635088739849921E-6</v>
+        <f>MAX(Calcs!Y35,0)*'India Adjustment'!$B$9</f>
+        <v>9.369038933387582E-6</v>
       </c>
       <c r="Z7">
-        <f>MAX(Calcs!Z35,0)</f>
-        <v>6.4197138942311997E-6</v>
+        <f>MAX(Calcs!Z35,0)*'India Adjustment'!$B$9</f>
+        <v>9.3055568714921171E-6</v>
       </c>
       <c r="AA7">
-        <f>MAX(Calcs!AA35,0)</f>
-        <v>4.7743679163858121E-6</v>
+        <f>MAX(Calcs!AA35,0)*'India Adjustment'!$B$9</f>
+        <v>6.9205813379438834E-6</v>
       </c>
       <c r="AB7">
-        <f>MAX(Calcs!AB35,0)</f>
-        <v>3.7014678237905137E-6</v>
+        <f>MAX(Calcs!AB35,0)*'India Adjustment'!$B$9</f>
+        <v>5.3653823067150401E-6</v>
       </c>
       <c r="AC7">
-        <f>MAX(Calcs!AC35,0)</f>
-        <v>5.4807606455608285E-6</v>
+        <f>MAX(Calcs!AC35,0)*'India Adjustment'!$B$9</f>
+        <v>7.944517579223035E-6</v>
       </c>
       <c r="AD7">
-        <f>MAX(Calcs!AD35,0)</f>
-        <v>3.4510814275411062E-6</v>
+        <f>MAX(Calcs!AD35,0)*'India Adjustment'!$B$9</f>
+        <v>5.0024401431646422E-6</v>
       </c>
       <c r="AE7">
-        <f>MAX(Calcs!AE35,0)</f>
+        <f>MAX(Calcs!AE35,0)*'India Adjustment'!$B$9</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>MAX(Calcs!AF35,0)</f>
+        <f>MAX(Calcs!AF35,0)*'India Adjustment'!$B$9</f>
         <v>0</v>
       </c>
       <c r="AG7">
-        <f>MAX(Calcs!AG35,0)</f>
+        <f>MAX(Calcs!AG35,0)*'India Adjustment'!$B$9</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>MAX(Calcs!AH35,0)</f>
+        <f>MAX(Calcs!AH35,0)*'India Adjustment'!$B$9</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>MAX(Calcs!AI35,0)</f>
+        <f>MAX(Calcs!AI35,0)*'India Adjustment'!$B$9</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>MAX(Calcs!AJ35,0)</f>
+        <f>MAX(Calcs!AJ35,0)*'India Adjustment'!$B$9</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>MAX(Calcs!AK35,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+        <f>MAX(Calcs!AK35,0)*'India Adjustment'!$B$9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4930,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -5079,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -5228,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>41</v>
       </c>
